--- a/AAII_Financials/Quarterly/VBHI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VBHI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>VBHI</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,69 +665,73 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
         <v>43951</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43861</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43769</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43677</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43585</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43496</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43404</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -741,8 +745,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -770,8 +777,11 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +809,11 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -885,11 +905,11 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
@@ -899,8 +919,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,26 +964,27 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
@@ -967,25 +994,28 @@
       <c r="K17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
+      <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="I18" s="3">
         <v>0</v>
@@ -996,8 +1026,11 @@
       <c r="K18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,37 +1042,41 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
+      <c r="E20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-200</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1067,8 +1104,11 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1079,54 +1119,60 @@
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-100</v>
       </c>
       <c r="J23" s="3">
         <v>-100</v>
       </c>
       <c r="K23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1200,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-100</v>
       </c>
       <c r="J26" s="3">
         <v>-100</v>
       </c>
       <c r="K26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L26" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-100</v>
       </c>
       <c r="J27" s="3">
         <v>-100</v>
       </c>
       <c r="K27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L27" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
+      <c r="E32" s="3">
+        <v>300</v>
+      </c>
+      <c r="F32" s="3">
+        <v>200</v>
+      </c>
+      <c r="G32" s="3">
+        <v>200</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-100</v>
       </c>
       <c r="J33" s="3">
         <v>-100</v>
       </c>
       <c r="K33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L33" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-100</v>
       </c>
       <c r="J35" s="3">
         <v>-100</v>
       </c>
       <c r="K35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L35" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
         <v>43951</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43861</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43769</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43677</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43585</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43496</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43404</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,8 +1619,9 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1542,11 +1629,11 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
@@ -1562,8 +1649,11 @@
       <c r="K41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,8 +1681,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1620,8 +1713,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,22 +1745,25 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -1678,8 +1777,11 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1687,11 +1789,11 @@
         <v>0</v>
       </c>
       <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
         <v>100</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
       <c r="G46" s="3">
         <v>0</v>
       </c>
@@ -1707,8 +1809,11 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,8 +1841,11 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1765,8 +1873,11 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +1905,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,8 +1969,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1881,8 +2001,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,8 +2033,11 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -1919,11 +2045,11 @@
         <v>0</v>
       </c>
       <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
         <v>100</v>
       </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
       <c r="G54" s="3">
         <v>0</v>
       </c>
@@ -1939,8 +2065,11 @@
       <c r="K54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,8 +2095,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1980,30 +2111,33 @@
         <v>300</v>
       </c>
       <c r="G57" s="3">
+        <v>300</v>
+      </c>
+      <c r="H57" s="3">
         <v>200</v>
-      </c>
-      <c r="H57" s="3">
-        <v>500</v>
       </c>
       <c r="I57" s="3">
         <v>500</v>
       </c>
       <c r="J57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>700</v>
+      </c>
+      <c r="E58" s="3">
         <v>600</v>
-      </c>
-      <c r="E58" s="3">
-        <v>500</v>
       </c>
       <c r="F58" s="3">
         <v>500</v>
@@ -2015,74 +2149,83 @@
         <v>500</v>
       </c>
       <c r="I58" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="J58" s="3">
         <v>300</v>
       </c>
       <c r="K58" s="3">
+        <v>300</v>
+      </c>
+      <c r="L58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E59" s="3">
         <v>2200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>600</v>
-      </c>
-      <c r="J59" s="3">
-        <v>500</v>
       </c>
       <c r="K59" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E60" s="3">
         <v>3100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,8 +2253,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2139,8 +2285,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E66" s="3">
         <v>3100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-6600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2000</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-1300</v>
       </c>
       <c r="J76" s="3">
         <v>-1300</v>
       </c>
       <c r="K76" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="L76" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
         <v>43951</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43861</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43769</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43677</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43585</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43496</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43404</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-100</v>
       </c>
       <c r="J81" s="3">
         <v>-100</v>
       </c>
       <c r="K81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L81" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +2832,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2663,8 +2862,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,8 +3022,11 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2817,7 +3034,7 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
@@ -2837,8 +3054,11 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +3070,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2879,8 +3100,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,8 +3164,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2966,8 +3196,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,25 +3338,28 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
@@ -3124,8 +3370,11 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,17 +3402,20 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
@@ -3180,6 +3432,9 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VBHI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VBHI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>VBHI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,59 +665,67 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F7" s="2">
         <v>44043</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43951</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43861</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43769</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43677</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43585</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43496</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43404</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -748,8 +756,14 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -780,8 +794,14 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +832,14 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +852,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,8 +886,14 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,8 +924,14 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -908,22 +948,28 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +1000,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,40 +1017,48 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
       </c>
       <c r="F17" s="3">
+        <v>300</v>
+      </c>
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
         <v>0</v>
       </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1009,28 +1069,34 @@
         <v>-100</v>
       </c>
       <c r="F18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
         <v>0</v>
       </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,8 +1109,10 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1052,31 +1120,37 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>500</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1086,8 +1160,8 @@
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
+      <c r="F21" s="3">
+        <v>-800</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
@@ -1107,8 +1181,14 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1122,57 +1202,69 @@
         <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-600</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-300</v>
       </c>
       <c r="H23" s="3">
         <v>-400</v>
       </c>
       <c r="I23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1203,8 +1295,14 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1333,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-600</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-300</v>
       </c>
       <c r="H26" s="3">
         <v>-400</v>
       </c>
       <c r="I26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-600</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-300</v>
       </c>
       <c r="H27" s="3">
         <v>-400</v>
       </c>
       <c r="I27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1447,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1485,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1523,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,8 +1561,14 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1436,63 +1576,75 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F32" s="3">
+        <v>500</v>
+      </c>
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-600</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-300</v>
       </c>
       <c r="H33" s="3">
         <v>-400</v>
       </c>
       <c r="I33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1675,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-600</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-300</v>
       </c>
       <c r="H35" s="3">
         <v>-400</v>
       </c>
       <c r="I35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F38" s="2">
         <v>44043</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43951</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43861</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43769</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43677</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43585</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43496</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43404</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1776,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,8 +1792,10 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1632,14 +1806,14 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
@@ -1652,8 +1826,14 @@
       <c r="L41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,8 +1864,14 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1716,8 +1902,14 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,8 +1940,14 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1780,8 +1978,14 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1792,14 +1996,14 @@
         <v>0</v>
       </c>
       <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
       <c r="I46" s="3">
         <v>0</v>
       </c>
@@ -1812,8 +2016,14 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,31 +2054,37 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -1876,8 +2092,14 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1908,8 +2130,14 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2168,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,8 +2206,14 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2004,8 +2244,14 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,26 +2282,32 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
         <v>100</v>
       </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
       <c r="I54" s="3">
         <v>0</v>
       </c>
@@ -2068,8 +2320,14 @@
       <c r="L54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2340,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,16 +2356,18 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F57" s="3">
         <v>300</v>
@@ -2114,36 +2376,42 @@
         <v>300</v>
       </c>
       <c r="H57" s="3">
+        <v>300</v>
+      </c>
+      <c r="I57" s="3">
+        <v>300</v>
+      </c>
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>800</v>
+      </c>
+      <c r="E58" s="3">
         <v>700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
+        <v>700</v>
+      </c>
+      <c r="G58" s="3">
         <v>600</v>
-      </c>
-      <c r="F58" s="3">
-        <v>500</v>
-      </c>
-      <c r="G58" s="3">
-        <v>500</v>
       </c>
       <c r="H58" s="3">
         <v>500</v>
@@ -2152,80 +2420,98 @@
         <v>500</v>
       </c>
       <c r="J58" s="3">
+        <v>500</v>
+      </c>
+      <c r="K58" s="3">
+        <v>500</v>
+      </c>
+      <c r="L58" s="3">
         <v>300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F59" s="3">
         <v>2600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3600</v>
+        <v>2700</v>
       </c>
       <c r="E60" s="3">
         <v>3100</v>
       </c>
       <c r="F60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H60" s="3">
         <v>2700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2256,8 +2542,14 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2288,8 +2580,14 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2618,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2656,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2694,52 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3600</v>
+        <v>2700</v>
       </c>
       <c r="E66" s="3">
         <v>3100</v>
       </c>
       <c r="F66" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H66" s="3">
         <v>2700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2752,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2786,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2824,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2862,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2900,52 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-8400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-7500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-7000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-6600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-6300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-5900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-5300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-5200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2976,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +3014,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +3052,52 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F76" s="3">
         <v>-3600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-3100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-2600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-2300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-2200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-2000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +3128,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F80" s="2">
         <v>44043</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43951</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43861</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43769</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43677</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43585</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43496</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43404</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
+        <v>300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-600</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-300</v>
       </c>
       <c r="H81" s="3">
         <v>-400</v>
       </c>
       <c r="I81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,8 +3229,10 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2865,8 +3263,14 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3301,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3339,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3377,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3415,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,8 +3453,14 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3037,10 +3471,10 @@
         <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
@@ -3057,8 +3491,14 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,31 +3511,33 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3103,8 +3545,14 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3583,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,31 +3621,37 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -3199,8 +3659,14 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3679,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3713,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3751,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3789,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,8 +3827,14 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3350,22 +3842,22 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -3373,8 +3865,14 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,8 +3903,14 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3414,14 +3918,14 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -3435,6 +3939,12 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VBHI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VBHI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
   <si>
     <t>VBHI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,72 +665,79 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="F7" s="2">
         <v>44227</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43951</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43861</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43769</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43677</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43585</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43496</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43404</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>100</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -738,17 +745,17 @@
       <c r="F8" s="3">
         <v>0</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -762,8 +769,14 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -800,8 +813,14 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +857,14 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +879,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,8 +919,14 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +963,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -939,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -954,22 +993,28 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>300</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -977,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1006,8 +1051,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1070,98 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F17" s="3">
         <v>100</v>
-      </c>
-      <c r="E17" s="3">
-        <v>100</v>
-      </c>
-      <c r="F17" s="3">
-        <v>300</v>
       </c>
       <c r="G17" s="3">
         <v>100</v>
       </c>
       <c r="H17" s="3">
+        <v>300</v>
+      </c>
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
       <c r="N17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-600</v>
       </c>
       <c r="E18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,57 +1176,65 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>500</v>
+        <v>-300</v>
       </c>
       <c r="F20" s="3">
+        <v>200</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-500</v>
       </c>
-      <c r="G20" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-700</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
-        <v>-800</v>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
@@ -1187,13 +1260,19 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
@@ -1208,63 +1287,75 @@
         <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="E23" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-600</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-300</v>
       </c>
       <c r="J23" s="3">
         <v>-400</v>
       </c>
       <c r="K23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1301,8 +1392,14 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1436,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="E26" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-600</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-300</v>
       </c>
       <c r="J26" s="3">
         <v>-400</v>
       </c>
       <c r="K26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="E27" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-300</v>
       </c>
       <c r="J27" s="3">
         <v>-400</v>
       </c>
       <c r="K27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1568,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1612,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1700,102 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>-500</v>
+        <v>300</v>
       </c>
       <c r="F32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3">
+        <v>200</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>500</v>
       </c>
-      <c r="G32" s="3">
-        <v>300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>200</v>
-      </c>
-      <c r="I32" s="3">
-        <v>200</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>500</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="E33" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-600</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-300</v>
       </c>
       <c r="J33" s="3">
         <v>-400</v>
       </c>
       <c r="K33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1832,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="E35" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-600</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-300</v>
       </c>
       <c r="J35" s="3">
         <v>-400</v>
       </c>
       <c r="K35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="F38" s="2">
         <v>44227</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43951</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43861</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43769</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43677</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43585</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43496</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43404</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,16 +1965,18 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -1812,14 +1985,14 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
@@ -1832,8 +2005,14 @@
       <c r="N41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,31 +2049,37 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -1908,8 +2093,14 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,8 +2137,14 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1957,20 +2154,20 @@
       <c r="E45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -1984,16 +2181,22 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -2002,14 +2205,14 @@
         <v>0</v>
       </c>
       <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
         <v>100</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
@@ -2022,8 +2225,14 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,23 +2269,29 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F48" s="3">
         <v>400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>200</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2086,11 +2301,11 @@
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2098,8 +2313,14 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2136,8 +2357,14 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,8 +2445,14 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2250,8 +2489,14 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,32 +2533,38 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F54" s="3">
         <v>400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>200</v>
       </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
       <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
         <v>100</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
       <c r="K54" s="3">
         <v>0</v>
       </c>
@@ -2326,8 +2577,14 @@
       <c r="N54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,22 +2617,24 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>200</v>
+      </c>
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
-      </c>
-      <c r="F57" s="3">
-        <v>300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>300</v>
       </c>
       <c r="H57" s="3">
         <v>300</v>
@@ -2382,42 +2643,48 @@
         <v>300</v>
       </c>
       <c r="J57" s="3">
+        <v>300</v>
+      </c>
+      <c r="K57" s="3">
+        <v>300</v>
+      </c>
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>600</v>
-      </c>
-      <c r="H58" s="3">
-        <v>500</v>
-      </c>
-      <c r="I58" s="3">
-        <v>500</v>
       </c>
       <c r="J58" s="3">
         <v>500</v>
@@ -2426,92 +2693,110 @@
         <v>500</v>
       </c>
       <c r="L58" s="3">
+        <v>500</v>
+      </c>
+      <c r="M58" s="3">
+        <v>500</v>
+      </c>
+      <c r="N58" s="3">
         <v>300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>300</v>
+      </c>
+      <c r="F59" s="3">
         <v>1500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>500</v>
+      </c>
+      <c r="F60" s="3">
         <v>2700</v>
-      </c>
-      <c r="E60" s="3">
-        <v>3100</v>
-      </c>
-      <c r="F60" s="3">
-        <v>3600</v>
       </c>
       <c r="G60" s="3">
         <v>3100</v>
       </c>
       <c r="H60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J60" s="3">
         <v>2700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2548,31 +2833,37 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -2586,8 +2877,14 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +3009,58 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>600</v>
+      </c>
+      <c r="F66" s="3">
         <v>2700</v>
-      </c>
-      <c r="E66" s="3">
-        <v>3100</v>
-      </c>
-      <c r="F66" s="3">
-        <v>3600</v>
       </c>
       <c r="G66" s="3">
         <v>3100</v>
       </c>
       <c r="H66" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J66" s="3">
         <v>2700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +3159,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3203,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3247,58 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-8100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-8100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-8400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-7500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-7000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-6600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-6300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-5900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-5300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-5200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3423,58 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F76" s="3">
         <v>-2300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-2900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-3600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-3100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-2600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-2300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-2200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-2000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-1300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-1300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3511,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="F80" s="2">
         <v>44227</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43951</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43861</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43769</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43677</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43585</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43496</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43404</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="E81" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-600</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-300</v>
       </c>
       <c r="J81" s="3">
         <v>-400</v>
       </c>
       <c r="K81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,31 +3626,33 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -3269,8 +3666,14 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,16 +3886,22 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>-600</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
@@ -3477,10 +3910,10 @@
         <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
@@ -3497,8 +3930,14 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,19 +3952,21 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
@@ -3539,11 +3980,11 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3551,8 +3992,14 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,19 +4080,25 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
+        <v>-4000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
@@ -3653,11 +4112,11 @@
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -3665,8 +4124,14 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +4146,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +4186,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,37 +4318,43 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>3900</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="F100" s="3">
         <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -3871,8 +4362,14 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,29 +4406,35 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -3945,6 +4448,12 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VBHI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VBHI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
   <si>
     <t>VBHI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,78 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E7" s="2">
         <v>44408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44316</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44227</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44135</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44043</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43951</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43861</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43769</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43677</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43585</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43496</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43404</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -740,13 +744,13 @@
         <v>100</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
+      <c r="G8" s="3">
+        <v>0</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>4</v>
@@ -757,8 +761,8 @@
       <c r="J8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -775,8 +779,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +826,11 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +873,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,20 +986,23 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>1700</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
@@ -999,11 +1019,11 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>300</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
@@ -1013,20 +1033,23 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
         <v>100</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1039,8 +1062,8 @@
       <c r="J15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,41 +1098,42 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2300</v>
-      </c>
-      <c r="F17" s="3">
-        <v>100</v>
       </c>
       <c r="G17" s="3">
         <v>100</v>
       </c>
       <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
         <v>300</v>
-      </c>
-      <c r="I17" s="3">
-        <v>100</v>
       </c>
       <c r="J17" s="3">
         <v>100</v>
       </c>
       <c r="K17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
         <v>0</v>
       </c>
@@ -1116,23 +1143,26 @@
       <c r="P17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1142,15 +1172,15 @@
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
+      <c r="K18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
@@ -1160,8 +1190,11 @@
       <c r="P18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,14 +1221,14 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1204,35 +1238,38 @@
       <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-700</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1266,8 +1303,11 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1275,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
@@ -1293,69 +1333,75 @@
         <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2700</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-700</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-100</v>
       </c>
       <c r="O23" s="3">
         <v>-100</v>
       </c>
       <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2700</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-100</v>
       </c>
       <c r="O26" s="3">
         <v>-100</v>
       </c>
       <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2700</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-700</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-100</v>
       </c>
       <c r="O27" s="3">
         <v>-100</v>
       </c>
       <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,14 +1785,14 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>4</v>
       </c>
@@ -1732,70 +1802,76 @@
       <c r="J32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2700</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-700</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-100</v>
       </c>
       <c r="O33" s="3">
         <v>-100</v>
       </c>
       <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2700</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-700</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-100</v>
       </c>
       <c r="O35" s="3">
         <v>-100</v>
       </c>
       <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E38" s="2">
         <v>44408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44316</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44227</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44135</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44043</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43951</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43861</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43769</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43677</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43585</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43496</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43404</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,20 +2053,21 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>1300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2100</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
@@ -1991,11 +2078,11 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
@@ -2011,8 +2098,11 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2145,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2066,8 +2159,8 @@
       <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
+      <c r="F43" s="3">
+        <v>100</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>4</v>
@@ -2081,8 +2174,8 @@
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2099,8 +2192,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2239,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2154,8 +2253,8 @@
       <c r="E45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>4</v>
@@ -2169,8 +2268,8 @@
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2187,20 +2286,23 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
         <v>1500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2200</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
       <c r="G46" s="3">
         <v>0</v>
       </c>
@@ -2211,11 +2313,11 @@
         <v>0</v>
       </c>
       <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
@@ -2231,8 +2333,11 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,26 +2380,29 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E48" s="3">
         <v>5000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>200</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2307,8 +2415,8 @@
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -2319,8 +2427,11 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,35 +2662,38 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E54" s="3">
         <v>6500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>200</v>
       </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
       <c r="I54" s="3">
         <v>0</v>
       </c>
       <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
         <v>100</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
       <c r="L54" s="3">
         <v>0</v>
       </c>
@@ -2583,8 +2709,11 @@
       <c r="P54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2749,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2631,13 +2762,13 @@
         <v>200</v>
       </c>
       <c r="F57" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>400</v>
       </c>
       <c r="H57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I57" s="3">
         <v>300</v>
@@ -2649,22 +2780,25 @@
         <v>300</v>
       </c>
       <c r="L57" s="3">
+        <v>300</v>
+      </c>
+      <c r="M57" s="3">
         <v>200</v>
-      </c>
-      <c r="M57" s="3">
-        <v>500</v>
       </c>
       <c r="N57" s="3">
         <v>500</v>
       </c>
       <c r="O57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="P57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2675,19 +2809,19 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>800</v>
-      </c>
-      <c r="G58" s="3">
-        <v>700</v>
       </c>
       <c r="H58" s="3">
         <v>700</v>
       </c>
       <c r="I58" s="3">
+        <v>700</v>
+      </c>
+      <c r="J58" s="3">
         <v>600</v>
-      </c>
-      <c r="J58" s="3">
-        <v>500</v>
       </c>
       <c r="K58" s="3">
         <v>500</v>
@@ -2699,60 +2833,66 @@
         <v>500</v>
       </c>
       <c r="N58" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="O58" s="3">
         <v>300</v>
       </c>
       <c r="P58" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
         <v>300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>600</v>
-      </c>
-      <c r="O59" s="3">
-        <v>500</v>
       </c>
       <c r="P59" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2760,43 +2900,46 @@
         <v>300</v>
       </c>
       <c r="E60" s="3">
+        <v>300</v>
+      </c>
+      <c r="F60" s="3">
         <v>500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +2982,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2850,8 +2996,8 @@
       <c r="E62" s="3">
         <v>100</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
+      <c r="F62" s="3">
+        <v>100</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
@@ -2865,8 +3011,8 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,8 +3170,11 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3024,43 +3182,46 @@
         <v>300</v>
       </c>
       <c r="E66" s="3">
+        <v>300</v>
+      </c>
+      <c r="F66" s="3">
         <v>600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-11500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-10800</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-8100</v>
       </c>
       <c r="G72" s="3">
         <v>-8100</v>
       </c>
       <c r="H72" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="I72" s="3">
         <v>-8400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-7500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-7000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-6300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-5200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E76" s="3">
         <v>6200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2000</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-1300</v>
       </c>
       <c r="O76" s="3">
         <v>-1300</v>
       </c>
       <c r="P76" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E80" s="2">
         <v>44408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44316</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44227</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44135</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44043</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43951</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43861</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43769</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43677</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43585</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43496</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43404</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2700</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-700</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-100</v>
       </c>
       <c r="O81" s="3">
         <v>-100</v>
       </c>
       <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,16 +3826,17 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>4</v>
@@ -3654,8 +3853,8 @@
       <c r="J83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,19 +4106,22 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-500</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
@@ -3916,7 +4133,7 @@
         <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -3936,8 +4153,11 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,22 +4174,23 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2500</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
@@ -3986,8 +4207,8 @@
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,22 +4313,25 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2500</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
@@ -4118,8 +4348,8 @@
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -4130,8 +4360,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,19 +4567,22 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>3900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>5000</v>
-      </c>
-      <c r="F100" s="3">
-        <v>100</v>
       </c>
       <c r="G100" s="3">
         <v>100</v>
@@ -4345,19 +4591,19 @@
         <v>100</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -4368,8 +4614,11 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,20 +4661,23 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
@@ -4433,11 +4685,11 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -4454,6 +4706,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VBHI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VBHI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
   <si>
     <t>VBHI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,95 +665,99 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E7" s="2">
         <v>44500</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44316</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44227</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44135</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44043</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43951</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43861</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43769</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43677</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43585</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43496</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43404</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E8" s="3">
         <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
+      <c r="H8" s="3">
+        <v>0</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>4</v>
@@ -764,8 +768,8 @@
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="L8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -782,8 +786,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,8 +836,11 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +886,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,23 +1006,26 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>1300</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>1700</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
@@ -1022,11 +1042,11 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>300</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
@@ -1036,23 +1056,26 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>200</v>
+      </c>
+      <c r="E15" s="3">
         <v>100</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
       <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
         <v>100</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1065,8 +1088,8 @@
       <c r="K15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,44 +1125,45 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
         <v>1800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2300</v>
-      </c>
-      <c r="G17" s="3">
-        <v>100</v>
       </c>
       <c r="H17" s="3">
         <v>100</v>
       </c>
       <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
         <v>300</v>
-      </c>
-      <c r="J17" s="3">
-        <v>100</v>
       </c>
       <c r="K17" s="3">
         <v>100</v>
       </c>
       <c r="L17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
@@ -1146,26 +1173,29 @@
       <c r="Q17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1175,15 +1205,15 @@
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
+      <c r="L18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
@@ -1193,8 +1223,11 @@
       <c r="Q18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1245,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1224,14 +1258,14 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1241,38 +1275,41 @@
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-700</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1306,19 +1343,22 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
@@ -1336,72 +1376,78 @@
         <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2700</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-700</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-100</v>
       </c>
       <c r="P23" s="3">
         <v>-100</v>
       </c>
       <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1493,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2700</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-700</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-100</v>
       </c>
       <c r="P26" s="3">
         <v>-100</v>
       </c>
       <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R26" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2700</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-700</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-100</v>
       </c>
       <c r="P27" s="3">
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R27" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1843,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1788,14 +1858,14 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>4</v>
       </c>
@@ -1805,73 +1875,79 @@
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2700</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-700</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-100</v>
       </c>
       <c r="P33" s="3">
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R33" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2700</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-700</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-100</v>
       </c>
       <c r="P35" s="3">
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R35" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E38" s="2">
         <v>44500</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44316</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44227</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44135</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44043</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43951</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43861</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43769</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43677</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43585</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43496</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43404</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,23 +2140,24 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>700</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2100</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
@@ -2081,11 +2168,11 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -2101,8 +2188,11 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,13 +2238,16 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
@@ -2162,8 +2255,8 @@
       <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
+      <c r="G43" s="3">
+        <v>100</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>4</v>
@@ -2177,8 +2270,8 @@
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2195,8 +2288,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2338,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2256,8 +2355,8 @@
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>4</v>
@@ -2271,8 +2370,8 @@
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2289,23 +2388,26 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2200</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
       <c r="H46" s="3">
         <v>0</v>
       </c>
@@ -2316,11 +2418,11 @@
         <v>0</v>
       </c>
       <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
@@ -2336,8 +2438,11 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,29 +2488,32 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E48" s="3">
         <v>4600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>200</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2418,8 +2526,8 @@
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -2430,8 +2538,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2688,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,38 +2788,41 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E54" s="3">
         <v>4900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>200</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
       <c r="J54" s="3">
         <v>0</v>
       </c>
       <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
         <v>100</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
       <c r="M54" s="3">
         <v>0</v>
       </c>
@@ -2712,8 +2838,11 @@
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +2880,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2765,13 +2896,13 @@
         <v>200</v>
       </c>
       <c r="G57" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H57" s="3">
         <v>400</v>
       </c>
       <c r="I57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J57" s="3">
         <v>300</v>
@@ -2783,22 +2914,25 @@
         <v>300</v>
       </c>
       <c r="M57" s="3">
+        <v>300</v>
+      </c>
+      <c r="N57" s="3">
         <v>200</v>
-      </c>
-      <c r="N57" s="3">
-        <v>500</v>
       </c>
       <c r="O57" s="3">
         <v>500</v>
       </c>
       <c r="P57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2812,19 +2946,19 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>800</v>
-      </c>
-      <c r="H58" s="3">
-        <v>700</v>
       </c>
       <c r="I58" s="3">
         <v>700</v>
       </c>
       <c r="J58" s="3">
+        <v>700</v>
+      </c>
+      <c r="K58" s="3">
         <v>600</v>
-      </c>
-      <c r="K58" s="3">
-        <v>500</v>
       </c>
       <c r="L58" s="3">
         <v>500</v>
@@ -2836,110 +2970,119 @@
         <v>500</v>
       </c>
       <c r="O58" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="P58" s="3">
         <v>300</v>
       </c>
       <c r="Q58" s="3">
+        <v>300</v>
+      </c>
+      <c r="R58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E59" s="3">
         <v>100</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
       <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>600</v>
-      </c>
-      <c r="P59" s="3">
-        <v>500</v>
       </c>
       <c r="Q59" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="E60" s="3">
         <v>300</v>
       </c>
       <c r="F60" s="3">
+        <v>300</v>
+      </c>
+      <c r="G60" s="3">
         <v>500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,13 +3128,16 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
@@ -2999,8 +3145,8 @@
       <c r="F62" s="3">
         <v>100</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
+      <c r="G62" s="3">
+        <v>100</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
@@ -3014,8 +3160,8 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="E66" s="3">
         <v>300</v>
       </c>
       <c r="F66" s="3">
+        <v>300</v>
+      </c>
+      <c r="G66" s="3">
         <v>600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-13100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-11500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-10800</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-8100</v>
       </c>
       <c r="H72" s="3">
         <v>-8100</v>
       </c>
       <c r="I72" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="J72" s="3">
         <v>-8400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-7500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-7000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-6600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-6300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-5300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E76" s="3">
         <v>4600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2000</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-1300</v>
       </c>
       <c r="P76" s="3">
         <v>-1300</v>
       </c>
       <c r="Q76" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="R76" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E80" s="2">
         <v>44500</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44316</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44227</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44135</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44043</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43951</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43861</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43769</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43677</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43585</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43496</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43404</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2700</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-700</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-100</v>
       </c>
       <c r="P81" s="3">
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R81" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,19 +4025,20 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>200</v>
+      </c>
+      <c r="E83" s="3">
         <v>100</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>4</v>
@@ -3856,8 +4055,8 @@
       <c r="K83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,22 +4323,25 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
@@ -4136,7 +4353,7 @@
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -4156,8 +4373,11 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,25 +4395,26 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2500</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
@@ -4210,8 +4431,8 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -4222,8 +4443,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,25 +4543,28 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2500</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
@@ -4351,8 +4581,8 @@
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -4363,8 +4593,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,22 +4813,25 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>3900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>5000</v>
-      </c>
-      <c r="G100" s="3">
-        <v>100</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
@@ -4594,19 +4840,19 @@
         <v>100</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
+      <c r="N100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -4617,8 +4863,11 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,23 +4913,26 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -4688,11 +4940,11 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -4709,6 +4961,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VBHI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VBHI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
   <si>
     <t>VBHI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,102 +665,105 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E7" s="2">
         <v>44592</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44500</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44408</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44316</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44227</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44135</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44043</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43951</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43861</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43769</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43677</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43585</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43496</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43404</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>200</v>
+      </c>
+      <c r="E8" s="3">
         <v>300</v>
-      </c>
-      <c r="E8" s="3">
-        <v>100</v>
       </c>
       <c r="F8" s="3">
         <v>100</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
+      <c r="I8" s="3">
+        <v>0</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>4</v>
@@ -771,8 +774,8 @@
       <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
+      <c r="M8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -789,8 +792,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -839,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -889,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1018,17 +1037,17 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>1300</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>1700</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
@@ -1045,11 +1064,11 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>300</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
@@ -1059,26 +1078,29 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>300</v>
+      </c>
+      <c r="E15" s="3">
         <v>200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>100</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
       <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
         <v>100</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1091,8 +1113,8 @@
       <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1109,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,47 +1151,48 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2300</v>
-      </c>
-      <c r="H17" s="3">
-        <v>100</v>
       </c>
       <c r="I17" s="3">
         <v>100</v>
       </c>
       <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
         <v>300</v>
-      </c>
-      <c r="K17" s="3">
-        <v>100</v>
       </c>
       <c r="L17" s="3">
         <v>100</v>
       </c>
       <c r="M17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
@@ -1176,8 +1202,11 @@
       <c r="R17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1185,20 +1214,20 @@
         <v>-400</v>
       </c>
       <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1208,15 +1237,15 @@
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
+      <c r="M18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
@@ -1226,8 +1255,11 @@
       <c r="R18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1261,14 +1294,14 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1278,26 +1311,29 @@
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1305,14 +1341,14 @@
         <v>-200</v>
       </c>
       <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-700</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1346,22 +1382,25 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3">
         <v>300</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1379,75 +1418,81 @@
         <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2700</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-700</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-100</v>
       </c>
       <c r="Q23" s="3">
         <v>-100</v>
       </c>
       <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1496,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2700</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-700</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-100</v>
       </c>
       <c r="Q26" s="3">
         <v>-100</v>
       </c>
       <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S26" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2700</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-700</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-100</v>
       </c>
       <c r="Q27" s="3">
         <v>-100</v>
       </c>
       <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S27" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1861,14 +1930,14 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>4</v>
       </c>
@@ -1878,76 +1947,82 @@
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2700</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-700</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-100</v>
       </c>
       <c r="Q33" s="3">
         <v>-100</v>
       </c>
       <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S33" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2700</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-700</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-100</v>
       </c>
       <c r="Q35" s="3">
         <v>-100</v>
       </c>
       <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S35" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E38" s="2">
         <v>44592</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44500</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44408</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44316</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44227</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44135</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44043</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43951</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43861</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43769</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43677</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43585</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43496</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43404</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,26 +2226,27 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2100</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
@@ -2171,11 +2257,11 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
@@ -2191,8 +2277,11 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,16 +2330,19 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
-      </c>
-      <c r="E43" s="3">
-        <v>100</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
@@ -2258,8 +2350,8 @@
       <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
+      <c r="H43" s="3">
+        <v>100</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>4</v>
@@ -2273,8 +2365,8 @@
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2291,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2358,8 +2456,8 @@
       <c r="G45" s="3">
         <v>0</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>4</v>
@@ -2373,8 +2471,8 @@
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2391,26 +2489,29 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
         <v>1000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2200</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
       <c r="I46" s="3">
         <v>0</v>
       </c>
@@ -2421,11 +2522,11 @@
         <v>0</v>
       </c>
       <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
         <v>100</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
@@ -2441,8 +2542,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,32 +2595,35 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E48" s="3">
         <v>4500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>200</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2529,8 +2636,8 @@
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -2541,8 +2648,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2591,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2741,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,41 +2913,44 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E54" s="3">
         <v>5400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>200</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
       <c r="K54" s="3">
         <v>0</v>
       </c>
       <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
         <v>100</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
       <c r="N54" s="3">
         <v>0</v>
       </c>
@@ -2841,8 +2966,11 @@
       <c r="R54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2899,13 +3029,13 @@
         <v>200</v>
       </c>
       <c r="H57" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I57" s="3">
         <v>400</v>
       </c>
       <c r="J57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K57" s="3">
         <v>300</v>
@@ -2917,22 +3047,25 @@
         <v>300</v>
       </c>
       <c r="N57" s="3">
+        <v>300</v>
+      </c>
+      <c r="O57" s="3">
         <v>200</v>
-      </c>
-      <c r="O57" s="3">
-        <v>500</v>
       </c>
       <c r="P57" s="3">
         <v>500</v>
       </c>
       <c r="Q57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="R57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2949,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>800</v>
-      </c>
-      <c r="I58" s="3">
-        <v>700</v>
       </c>
       <c r="J58" s="3">
         <v>700</v>
       </c>
       <c r="K58" s="3">
+        <v>700</v>
+      </c>
+      <c r="L58" s="3">
         <v>600</v>
-      </c>
-      <c r="L58" s="3">
-        <v>500</v>
       </c>
       <c r="M58" s="3">
         <v>500</v>
@@ -2973,16 +3106,19 @@
         <v>500</v>
       </c>
       <c r="P58" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Q58" s="3">
         <v>300</v>
       </c>
       <c r="R58" s="3">
+        <v>300</v>
+      </c>
+      <c r="S58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2990,49 +3126,52 @@
         <v>1300</v>
       </c>
       <c r="E59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F59" s="3">
         <v>100</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
       <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>600</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>500</v>
       </c>
       <c r="R59" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3040,49 +3179,52 @@
         <v>1500</v>
       </c>
       <c r="E60" s="3">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="F60" s="3">
         <v>300</v>
       </c>
       <c r="G60" s="3">
+        <v>300</v>
+      </c>
+      <c r="H60" s="3">
         <v>500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3131,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3140,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
         <v>100</v>
@@ -3148,8 +3293,8 @@
       <c r="G62" s="3">
         <v>100</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
+      <c r="H62" s="3">
+        <v>100</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
@@ -3163,8 +3308,8 @@
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3181,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,8 +3485,11 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3340,49 +3497,52 @@
         <v>1500</v>
       </c>
       <c r="E66" s="3">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="F66" s="3">
         <v>300</v>
       </c>
       <c r="G66" s="3">
+        <v>300</v>
+      </c>
+      <c r="H66" s="3">
         <v>600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-13800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-13100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-11500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-10800</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-8100</v>
       </c>
       <c r="I72" s="3">
         <v>-8100</v>
       </c>
       <c r="J72" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-8400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-7500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-7000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-6600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-6300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-5900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-5200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E76" s="3">
         <v>3900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2000</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-1300</v>
       </c>
       <c r="Q76" s="3">
         <v>-1300</v>
       </c>
       <c r="R76" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="S76" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E80" s="2">
         <v>44592</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44500</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44408</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44316</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44227</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44135</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44043</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43951</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43861</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43769</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43677</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43585</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43496</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43404</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2700</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-700</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-100</v>
       </c>
       <c r="Q81" s="3">
         <v>-100</v>
       </c>
       <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S81" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,22 +4223,23 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>300</v>
+      </c>
+      <c r="E83" s="3">
         <v>200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>100</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>4</v>
@@ -4058,8 +4256,8 @@
       <c r="L83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -4076,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,25 +4539,28 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
@@ -4356,7 +4572,7 @@
         <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -4376,8 +4592,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,28 +4615,29 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2500</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
@@ -4434,8 +4654,8 @@
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4446,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,28 +4772,31 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2500</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>4</v>
@@ -4584,8 +4813,8 @@
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -4596,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,25 +5058,28 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>1000</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>3900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>5000</v>
-      </c>
-      <c r="H100" s="3">
-        <v>100</v>
       </c>
       <c r="I100" s="3">
         <v>100</v>
@@ -4843,19 +5088,19 @@
         <v>100</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
+      <c r="O100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -4866,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,26 +5164,29 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E102" s="3">
         <v>500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -4943,11 +5194,11 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -4964,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VBHI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VBHI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
   <si>
     <t>VBHI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E7" s="2">
         <v>44681</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44592</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44500</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44408</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44316</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44227</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44135</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44043</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43951</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43861</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43769</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43677</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43585</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43496</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43404</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -751,22 +755,22 @@
         <v>200</v>
       </c>
       <c r="E8" s="3">
+        <v>200</v>
+      </c>
+      <c r="F8" s="3">
         <v>300</v>
-      </c>
-      <c r="F8" s="3">
-        <v>100</v>
       </c>
       <c r="G8" s="3">
         <v>100</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
+      <c r="J8" s="3">
+        <v>0</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>4</v>
@@ -777,8 +781,8 @@
       <c r="M8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="N8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1040,17 +1060,17 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>1300</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>1700</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
@@ -1067,11 +1087,11 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>300</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
@@ -1081,29 +1101,32 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>200</v>
+      </c>
+      <c r="E15" s="3">
         <v>300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>100</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
       <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
         <v>100</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1116,8 +1139,8 @@
       <c r="M15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,50 +1178,51 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>900</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2300</v>
-      </c>
-      <c r="I17" s="3">
-        <v>100</v>
       </c>
       <c r="J17" s="3">
         <v>100</v>
       </c>
       <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
         <v>300</v>
-      </c>
-      <c r="L17" s="3">
-        <v>100</v>
       </c>
       <c r="M17" s="3">
         <v>100</v>
       </c>
       <c r="N17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
       <c r="Q17" s="3">
         <v>0</v>
       </c>
@@ -1205,32 +1232,35 @@
       <c r="S17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-400</v>
+        <v>-700</v>
       </c>
       <c r="E18" s="3">
         <v>-400</v>
       </c>
       <c r="F18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1240,15 +1270,15 @@
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
+      <c r="N18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
         <v>0</v>
       </c>
@@ -1258,8 +1288,11 @@
       <c r="S18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1297,14 +1331,14 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1314,44 +1348,47 @@
       <c r="M20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-200</v>
+        <v>-600</v>
       </c>
       <c r="E21" s="3">
         <v>-200</v>
       </c>
       <c r="F21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G21" s="3">
         <v>-1500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-700</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1385,25 +1422,28 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
@@ -1421,78 +1461,84 @@
         <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2700</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-100</v>
       </c>
       <c r="R23" s="3">
         <v>-100</v>
       </c>
       <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2700</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-100</v>
       </c>
       <c r="R26" s="3">
         <v>-100</v>
       </c>
       <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T26" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2700</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-100</v>
       </c>
       <c r="R27" s="3">
         <v>-100</v>
       </c>
       <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T27" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1933,14 +2003,14 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
@@ -1950,79 +2020,85 @@
       <c r="M32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2700</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-100</v>
       </c>
       <c r="R33" s="3">
         <v>-100</v>
       </c>
       <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T33" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2700</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-100</v>
       </c>
       <c r="R35" s="3">
         <v>-100</v>
       </c>
       <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T35" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E38" s="2">
         <v>44681</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44592</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44500</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44408</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44316</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44227</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44135</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44043</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43951</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43861</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43769</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43677</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43585</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43496</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43404</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2236,20 +2323,20 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2100</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
@@ -2260,11 +2347,11 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2342,10 +2435,10 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
         <v>200</v>
-      </c>
-      <c r="F43" s="3">
-        <v>100</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
@@ -2353,8 +2446,8 @@
       <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
+      <c r="I43" s="3">
+        <v>100</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
@@ -2368,8 +2461,8 @@
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2459,8 +2558,8 @@
       <c r="H45" s="3">
         <v>0</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
@@ -2474,8 +2573,8 @@
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2492,8 +2591,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2501,20 +2603,20 @@
         <v>300</v>
       </c>
       <c r="E46" s="3">
+        <v>300</v>
+      </c>
+      <c r="F46" s="3">
         <v>1000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2200</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
@@ -2525,11 +2627,11 @@
         <v>0</v>
       </c>
       <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
         <v>100</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
       <c r="O46" s="3">
         <v>0</v>
       </c>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,35 +2703,38 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E48" s="3">
         <v>4800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>200</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2639,8 +2747,8 @@
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,44 +3039,47 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E54" s="3">
         <v>5100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>200</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
       <c r="L54" s="3">
         <v>0</v>
       </c>
       <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
         <v>100</v>
       </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
       <c r="O54" s="3">
         <v>0</v>
       </c>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3032,13 +3163,13 @@
         <v>200</v>
       </c>
       <c r="I57" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>400</v>
       </c>
       <c r="K57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L57" s="3">
         <v>300</v>
@@ -3050,27 +3181,30 @@
         <v>300</v>
       </c>
       <c r="O57" s="3">
+        <v>300</v>
+      </c>
+      <c r="P57" s="3">
         <v>200</v>
-      </c>
-      <c r="P57" s="3">
-        <v>500</v>
       </c>
       <c r="Q57" s="3">
         <v>500</v>
       </c>
       <c r="R57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="S57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -3085,19 +3219,19 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>800</v>
-      </c>
-      <c r="J58" s="3">
-        <v>700</v>
       </c>
       <c r="K58" s="3">
         <v>700</v>
       </c>
       <c r="L58" s="3">
+        <v>700</v>
+      </c>
+      <c r="M58" s="3">
         <v>600</v>
-      </c>
-      <c r="M58" s="3">
-        <v>500</v>
       </c>
       <c r="N58" s="3">
         <v>500</v>
@@ -3109,16 +3243,19 @@
         <v>500</v>
       </c>
       <c r="Q58" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="R58" s="3">
         <v>300</v>
       </c>
       <c r="S58" s="3">
+        <v>300</v>
+      </c>
+      <c r="T58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3129,102 +3266,108 @@
         <v>1300</v>
       </c>
       <c r="F59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G59" s="3">
         <v>100</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
       <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>600</v>
-      </c>
-      <c r="R59" s="3">
-        <v>500</v>
       </c>
       <c r="S59" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="E60" s="3">
         <v>1500</v>
       </c>
       <c r="F60" s="3">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="G60" s="3">
         <v>300</v>
       </c>
       <c r="H60" s="3">
+        <v>300</v>
+      </c>
+      <c r="I60" s="3">
         <v>500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3288,7 +3434,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>100</v>
@@ -3296,8 +3442,8 @@
       <c r="H62" s="3">
         <v>100</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
+      <c r="I62" s="3">
+        <v>100</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
@@ -3311,8 +3457,8 @@
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="E66" s="3">
         <v>1500</v>
       </c>
       <c r="F66" s="3">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="G66" s="3">
         <v>300</v>
       </c>
       <c r="H66" s="3">
+        <v>300</v>
+      </c>
+      <c r="I66" s="3">
         <v>600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-14300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-13800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-13100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-11500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-10800</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-8100</v>
       </c>
       <c r="J72" s="3">
         <v>-8100</v>
       </c>
       <c r="K72" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="L72" s="3">
         <v>-8400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-7500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-7000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-6600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-6300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-5300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-5200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E76" s="3">
         <v>3600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2000</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-1300</v>
       </c>
       <c r="R76" s="3">
         <v>-1300</v>
       </c>
       <c r="S76" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="T76" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E80" s="2">
         <v>44681</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44592</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44500</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44408</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44316</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44227</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44135</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44043</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43951</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43861</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43769</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43677</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43585</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43496</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43404</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2700</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-100</v>
       </c>
       <c r="R81" s="3">
         <v>-100</v>
       </c>
       <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T81" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,25 +4422,26 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>200</v>
+      </c>
+      <c r="E83" s="3">
         <v>300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>4</v>
@@ -4259,8 +4458,8 @@
       <c r="M83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,28 +4756,31 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
@@ -4575,7 +4792,7 @@
         <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,31 +4836,32 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2500</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
@@ -4657,8 +4878,8 @@
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,31 +5002,34 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2500</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
@@ -4816,8 +5046,8 @@
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,28 +5304,31 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>1000</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>3900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>5000</v>
-      </c>
-      <c r="I100" s="3">
-        <v>100</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
@@ -5091,19 +5337,19 @@
         <v>100</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
+      <c r="P100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,29 +5416,32 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -5197,11 +5449,11 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VBHI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VBHI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
   <si>
     <t>VBHI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,119 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E7" s="2">
         <v>44773</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44592</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44500</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44408</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44316</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44227</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44135</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44043</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43951</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43861</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43769</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43677</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43585</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43496</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43404</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E8" s="3">
         <v>200</v>
       </c>
       <c r="F8" s="3">
+        <v>200</v>
+      </c>
+      <c r="G8" s="3">
         <v>300</v>
-      </c>
-      <c r="G8" s="3">
-        <v>100</v>
       </c>
       <c r="H8" s="3">
         <v>100</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
+      <c r="K8" s="3">
+        <v>0</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>4</v>
@@ -784,8 +788,8 @@
       <c r="N8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
+      <c r="O8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -802,8 +806,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +865,11 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1063,17 +1083,17 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>1300</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>1700</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
@@ -1090,11 +1110,11 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>300</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1113,23 +1136,23 @@
         <v>200</v>
       </c>
       <c r="E15" s="3">
+        <v>200</v>
+      </c>
+      <c r="F15" s="3">
         <v>300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>100</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
       <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
         <v>100</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1142,8 +1165,8 @@
       <c r="N15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,53 +1205,54 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
         <v>900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2300</v>
-      </c>
-      <c r="J17" s="3">
-        <v>100</v>
       </c>
       <c r="K17" s="3">
         <v>100</v>
       </c>
       <c r="L17" s="3">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
         <v>300</v>
-      </c>
-      <c r="M17" s="3">
-        <v>100</v>
       </c>
       <c r="N17" s="3">
         <v>100</v>
       </c>
       <c r="O17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
       <c r="R17" s="3">
         <v>0</v>
       </c>
@@ -1235,35 +1262,38 @@
       <c r="T17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-700</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-400</v>
       </c>
       <c r="F18" s="3">
         <v>-400</v>
       </c>
       <c r="G18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H18" s="3">
         <v>-1700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1273,15 +1303,15 @@
       <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
+      <c r="O18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
         <v>0</v>
       </c>
@@ -1291,8 +1321,11 @@
       <c r="T18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1346,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1334,14 +1368,14 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1351,47 +1385,50 @@
       <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-600</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-200</v>
       </c>
       <c r="F21" s="3">
         <v>-200</v>
       </c>
       <c r="G21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H21" s="3">
         <v>-1500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-700</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1425,28 +1462,31 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
@@ -1464,81 +1504,87 @@
         <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>200</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2700</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-700</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-100</v>
       </c>
       <c r="S23" s="3">
         <v>-100</v>
       </c>
       <c r="T23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2700</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-700</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-100</v>
       </c>
       <c r="S26" s="3">
         <v>-100</v>
       </c>
       <c r="T26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U26" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2700</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-700</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-100</v>
       </c>
       <c r="S27" s="3">
         <v>-100</v>
       </c>
       <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U27" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2052,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2006,14 +2076,14 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2023,82 +2093,88 @@
       <c r="N32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2700</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-700</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-100</v>
       </c>
       <c r="S33" s="3">
         <v>-100</v>
       </c>
       <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U33" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2700</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-700</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-100</v>
       </c>
       <c r="S35" s="3">
         <v>-100</v>
       </c>
       <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U35" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E38" s="2">
         <v>44773</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44592</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44500</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44408</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44316</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44227</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44135</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44043</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43951</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43861</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43769</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43677</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43585</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43496</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43404</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2400,9 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2326,20 +2413,20 @@
         <v>100</v>
       </c>
       <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
         <v>700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2100</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
@@ -2350,11 +2437,11 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
@@ -2370,8 +2457,11 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2516,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2438,10 +2531,10 @@
         <v>100</v>
       </c>
       <c r="F43" s="3">
+        <v>100</v>
+      </c>
+      <c r="G43" s="3">
         <v>200</v>
-      </c>
-      <c r="G43" s="3">
-        <v>100</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
@@ -2449,8 +2542,8 @@
       <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
+      <c r="J43" s="3">
+        <v>100</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
@@ -2464,8 +2557,8 @@
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -2482,8 +2575,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2634,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2561,8 +2660,8 @@
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>4</v>
@@ -2576,8 +2675,8 @@
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2594,32 +2693,35 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E46" s="3">
         <v>300</v>
       </c>
       <c r="F46" s="3">
+        <v>300</v>
+      </c>
+      <c r="G46" s="3">
         <v>1000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2200</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
@@ -2630,11 +2732,11 @@
         <v>0</v>
       </c>
       <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
         <v>100</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
       <c r="P46" s="3">
         <v>0</v>
       </c>
@@ -2650,8 +2752,11 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,38 +2811,41 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E48" s="3">
         <v>4600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>200</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2750,8 +2858,8 @@
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -2762,8 +2870,11 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,47 +3165,50 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E54" s="3">
         <v>4900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>200</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
       <c r="M54" s="3">
         <v>0</v>
       </c>
       <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
         <v>100</v>
       </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
       <c r="P54" s="3">
         <v>0</v>
       </c>
@@ -3098,8 +3224,11 @@
       <c r="T54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3272,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3166,13 +3297,13 @@
         <v>200</v>
       </c>
       <c r="J57" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K57" s="3">
         <v>400</v>
       </c>
       <c r="L57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M57" s="3">
         <v>300</v>
@@ -3184,31 +3315,34 @@
         <v>300</v>
       </c>
       <c r="P57" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q57" s="3">
         <v>200</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>500</v>
       </c>
       <c r="R57" s="3">
         <v>500</v>
       </c>
       <c r="S57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>100</v>
+      </c>
+      <c r="E58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
@@ -3222,19 +3356,19 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>800</v>
-      </c>
-      <c r="K58" s="3">
-        <v>700</v>
       </c>
       <c r="L58" s="3">
         <v>700</v>
       </c>
       <c r="M58" s="3">
+        <v>700</v>
+      </c>
+      <c r="N58" s="3">
         <v>600</v>
-      </c>
-      <c r="N58" s="3">
-        <v>500</v>
       </c>
       <c r="O58" s="3">
         <v>500</v>
@@ -3246,16 +3380,19 @@
         <v>500</v>
       </c>
       <c r="R58" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="S58" s="3">
         <v>300</v>
       </c>
       <c r="T58" s="3">
+        <v>300</v>
+      </c>
+      <c r="U58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3269,105 +3406,111 @@
         <v>1300</v>
       </c>
       <c r="G59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
       <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>600</v>
-      </c>
-      <c r="S59" s="3">
-        <v>500</v>
       </c>
       <c r="T59" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E60" s="3">
         <v>1700</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1500</v>
       </c>
       <c r="F60" s="3">
         <v>1500</v>
       </c>
       <c r="G60" s="3">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="H60" s="3">
         <v>300</v>
       </c>
       <c r="I60" s="3">
+        <v>300</v>
+      </c>
+      <c r="J60" s="3">
         <v>500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3565,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3437,7 +3583,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
         <v>100</v>
@@ -3445,8 +3591,8 @@
       <c r="I62" s="3">
         <v>100</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
+      <c r="J62" s="3">
+        <v>100</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
@@ -3460,8 +3606,8 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E66" s="3">
         <v>1700</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1500</v>
       </c>
       <c r="F66" s="3">
         <v>1500</v>
       </c>
       <c r="G66" s="3">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="H66" s="3">
         <v>300</v>
       </c>
       <c r="I66" s="3">
+        <v>300</v>
+      </c>
+      <c r="J66" s="3">
         <v>600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-15000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-14300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-13800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-13100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-11500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-10800</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-8100</v>
       </c>
       <c r="K72" s="3">
         <v>-8100</v>
       </c>
       <c r="L72" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="M72" s="3">
         <v>-8400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-7500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-7000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-6600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-5900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-5300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-5200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E76" s="3">
         <v>3200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-3100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2000</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-1300</v>
       </c>
       <c r="S76" s="3">
         <v>-1300</v>
       </c>
       <c r="T76" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="U76" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E80" s="2">
         <v>44773</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44592</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44500</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44408</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44316</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44227</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44135</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44043</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43951</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43861</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43769</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43677</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43585</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43496</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43404</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2700</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-700</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-100</v>
       </c>
       <c r="S81" s="3">
         <v>-100</v>
       </c>
       <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U81" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4432,19 +4631,19 @@
         <v>200</v>
       </c>
       <c r="E83" s="3">
+        <v>200</v>
+      </c>
+      <c r="F83" s="3">
         <v>300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>4</v>
@@ -4461,8 +4660,8 @@
       <c r="N83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,31 +4973,34 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-100</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
@@ -4795,7 +5012,7 @@
         <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -4815,8 +5032,11 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5057,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4846,25 +5067,25 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2500</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
@@ -4881,8 +5102,8 @@
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -4893,8 +5114,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5232,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5014,25 +5244,25 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2500</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
@@ -5049,8 +5279,8 @@
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -5061,8 +5291,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,31 +5550,34 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>1000</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>3900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>5000</v>
-      </c>
-      <c r="J100" s="3">
-        <v>100</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>
@@ -5340,19 +5586,19 @@
         <v>100</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
@@ -5363,8 +5609,11 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5668,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5428,23 +5680,23 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -5452,11 +5704,11 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
@@ -5473,6 +5725,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VBHI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VBHI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
   <si>
     <t>VBHI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,122 +665,126 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E7" s="2">
         <v>44865</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44773</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44592</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44500</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44316</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44227</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44135</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44043</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43951</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43861</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43769</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43677</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43585</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43496</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43404</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>200</v>
+      </c>
+      <c r="E8" s="3">
         <v>400</v>
-      </c>
-      <c r="E8" s="3">
-        <v>200</v>
       </c>
       <c r="F8" s="3">
         <v>200</v>
       </c>
       <c r="G8" s="3">
+        <v>200</v>
+      </c>
+      <c r="H8" s="3">
         <v>300</v>
-      </c>
-      <c r="H8" s="3">
-        <v>100</v>
       </c>
       <c r="I8" s="3">
         <v>100</v>
       </c>
       <c r="J8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
+      <c r="L8" s="3">
+        <v>0</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>4</v>
@@ -791,8 +795,8 @@
       <c r="O8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
+      <c r="P8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
@@ -809,8 +813,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -868,8 +875,11 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,8 +937,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1085,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1086,17 +1106,17 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>1300</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>1700</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
@@ -1113,11 +1133,11 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>300</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
@@ -1127,35 +1147,38 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E15" s="3">
         <v>200</v>
       </c>
       <c r="F15" s="3">
+        <v>200</v>
+      </c>
+      <c r="G15" s="3">
         <v>300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>100</v>
       </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
       <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
         <v>100</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1168,8 +1191,8 @@
       <c r="O15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,56 +1232,57 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2300</v>
-      </c>
-      <c r="K17" s="3">
-        <v>100</v>
       </c>
       <c r="L17" s="3">
         <v>100</v>
       </c>
       <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
         <v>300</v>
-      </c>
-      <c r="N17" s="3">
-        <v>100</v>
       </c>
       <c r="O17" s="3">
         <v>100</v>
       </c>
       <c r="P17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
         <v>300</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
       <c r="S17" s="3">
         <v>0</v>
       </c>
@@ -1265,38 +1292,41 @@
       <c r="U17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-700</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-400</v>
       </c>
       <c r="G18" s="3">
         <v>-400</v>
       </c>
       <c r="H18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I18" s="3">
         <v>-1700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1306,15 +1336,15 @@
       <c r="O18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
+      <c r="P18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
@@ -1324,8 +1354,11 @@
       <c r="U18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1380,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1371,14 +1405,14 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1388,50 +1422,53 @@
       <c r="O20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E21" s="3">
         <v>100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-600</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-200</v>
       </c>
       <c r="G21" s="3">
         <v>-200</v>
       </c>
       <c r="H21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I21" s="3">
         <v>-1500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-700</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1465,8 +1502,11 @@
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1476,20 +1516,20 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
@@ -1507,84 +1547,90 @@
         <v>100</v>
       </c>
       <c r="P22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
       <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>200</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
       <c r="T22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2700</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-700</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-100</v>
       </c>
       <c r="T23" s="3">
         <v>-100</v>
       </c>
       <c r="U23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1642,8 +1688,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2700</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-700</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-100</v>
       </c>
       <c r="T26" s="3">
         <v>-100</v>
       </c>
       <c r="U26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V26" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2700</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-700</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-100</v>
       </c>
       <c r="T27" s="3">
         <v>-100</v>
       </c>
       <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V27" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2122,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2079,14 +2149,14 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2096,85 +2166,91 @@
       <c r="O32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2700</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-700</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-100</v>
       </c>
       <c r="T33" s="3">
         <v>-100</v>
       </c>
       <c r="U33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V33" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2700</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-700</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-100</v>
       </c>
       <c r="T35" s="3">
         <v>-100</v>
       </c>
       <c r="U35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V35" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E38" s="2">
         <v>44865</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44773</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44592</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44500</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44316</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44227</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44135</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44043</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43951</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43861</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43769</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43677</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43585</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43496</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43404</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,8 +2487,9 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2416,20 +2503,20 @@
         <v>100</v>
       </c>
       <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
         <v>700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2100</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
@@ -2440,11 +2527,11 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
@@ -2460,8 +2547,11 @@
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,8 +2609,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2534,10 +2627,10 @@
         <v>100</v>
       </c>
       <c r="G43" s="3">
+        <v>100</v>
+      </c>
+      <c r="H43" s="3">
         <v>200</v>
-      </c>
-      <c r="H43" s="3">
-        <v>100</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
@@ -2545,8 +2638,8 @@
       <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
+      <c r="K43" s="3">
+        <v>100</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
@@ -2560,8 +2653,8 @@
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2578,8 +2671,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,8 +2733,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2663,8 +2762,8 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>4</v>
@@ -2678,8 +2777,8 @@
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2696,8 +2795,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2705,26 +2807,26 @@
         <v>200</v>
       </c>
       <c r="E46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F46" s="3">
         <v>300</v>
       </c>
       <c r="G46" s="3">
+        <v>300</v>
+      </c>
+      <c r="H46" s="3">
         <v>1000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2200</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
@@ -2735,11 +2837,11 @@
         <v>0</v>
       </c>
       <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
         <v>100</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
       <c r="Q46" s="3">
         <v>0</v>
       </c>
@@ -2755,8 +2857,11 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,41 +2919,44 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E48" s="3">
         <v>4400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>200</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2861,8 +2969,8 @@
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -2873,8 +2981,11 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3167,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3109,8 +3229,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,50 +3291,53 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E54" s="3">
         <v>4700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>200</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
       <c r="N54" s="3">
         <v>0</v>
       </c>
       <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
         <v>100</v>
       </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
       <c r="Q54" s="3">
         <v>0</v>
       </c>
@@ -3227,8 +3353,11 @@
       <c r="U54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,8 +3403,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3300,13 +3431,13 @@
         <v>200</v>
       </c>
       <c r="K57" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>400</v>
       </c>
       <c r="M57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N57" s="3">
         <v>300</v>
@@ -3318,34 +3449,37 @@
         <v>300</v>
       </c>
       <c r="Q57" s="3">
+        <v>300</v>
+      </c>
+      <c r="R57" s="3">
         <v>200</v>
-      </c>
-      <c r="R57" s="3">
-        <v>500</v>
       </c>
       <c r="S57" s="3">
         <v>500</v>
       </c>
       <c r="T57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="U57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>200</v>
+      </c>
+      <c r="E58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
@@ -3359,19 +3493,19 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>800</v>
-      </c>
-      <c r="L58" s="3">
-        <v>700</v>
       </c>
       <c r="M58" s="3">
         <v>700</v>
       </c>
       <c r="N58" s="3">
+        <v>700</v>
+      </c>
+      <c r="O58" s="3">
         <v>600</v>
-      </c>
-      <c r="O58" s="3">
-        <v>500</v>
       </c>
       <c r="P58" s="3">
         <v>500</v>
@@ -3383,16 +3517,19 @@
         <v>500</v>
       </c>
       <c r="S58" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="T58" s="3">
         <v>300</v>
       </c>
       <c r="U58" s="3">
+        <v>300</v>
+      </c>
+      <c r="V58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3409,49 +3546,52 @@
         <v>1300</v>
       </c>
       <c r="H59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
       <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>600</v>
-      </c>
-      <c r="T59" s="3">
-        <v>500</v>
       </c>
       <c r="U59" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3459,58 +3599,61 @@
         <v>1600</v>
       </c>
       <c r="E60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F60" s="3">
         <v>1700</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1500</v>
       </c>
       <c r="G60" s="3">
         <v>1500</v>
       </c>
       <c r="H60" s="3">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="I60" s="3">
         <v>300</v>
       </c>
       <c r="J60" s="3">
+        <v>300</v>
+      </c>
+      <c r="K60" s="3">
         <v>500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3568,8 +3711,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3586,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I62" s="3">
         <v>100</v>
@@ -3594,8 +3740,8 @@
       <c r="J62" s="3">
         <v>100</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
+      <c r="K62" s="3">
+        <v>100</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
@@ -3609,8 +3755,8 @@
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,8 +3959,11 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3813,58 +3971,61 @@
         <v>1600</v>
       </c>
       <c r="E66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F66" s="3">
         <v>1700</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1500</v>
       </c>
       <c r="G66" s="3">
         <v>1500</v>
       </c>
       <c r="H66" s="3">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="I66" s="3">
         <v>300</v>
       </c>
       <c r="J66" s="3">
+        <v>300</v>
+      </c>
+      <c r="K66" s="3">
         <v>600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-15200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-15000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-14300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-13800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-13100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-11500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-10800</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-8100</v>
       </c>
       <c r="L72" s="3">
         <v>-8100</v>
       </c>
       <c r="M72" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="N72" s="3">
         <v>-8400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-7500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-7000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-6300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-5900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-5300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-5200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E76" s="3">
         <v>3100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-3600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-3100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2000</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-1300</v>
       </c>
       <c r="T76" s="3">
         <v>-1300</v>
       </c>
       <c r="U76" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="V76" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E80" s="2">
         <v>44865</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44773</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44592</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44500</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44316</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44227</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44135</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44043</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43951</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43861</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43769</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43677</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43585</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43496</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43404</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2700</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-700</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-100</v>
       </c>
       <c r="T81" s="3">
         <v>-100</v>
       </c>
       <c r="U81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V81" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,31 +4820,32 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>200</v>
       </c>
       <c r="F83" s="3">
+        <v>200</v>
+      </c>
+      <c r="G83" s="3">
         <v>300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>4</v>
@@ -4663,8 +4862,8 @@
       <c r="O83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -4681,8 +4880,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,34 +5190,37 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
@@ -5015,7 +5232,7 @@
         <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
@@ -5035,8 +5252,11 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5278,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5070,25 +5291,25 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
-        <v>-2200</v>
-      </c>
       <c r="I91" s="3">
-        <v>-100</v>
+        <v>-900</v>
       </c>
       <c r="J91" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2500</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
@@ -5105,8 +5326,8 @@
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -5117,8 +5338,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,37 +5462,40 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2500</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
@@ -5282,8 +5512,8 @@
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -5294,8 +5524,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,34 +5796,37 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>1000</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>3900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>5000</v>
-      </c>
-      <c r="K100" s="3">
-        <v>100</v>
       </c>
       <c r="L100" s="3">
         <v>100</v>
@@ -5589,19 +5835,19 @@
         <v>100</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
+      <c r="R100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
@@ -5612,8 +5858,11 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,8 +5920,11 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5683,23 +5935,23 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -5707,11 +5959,11 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
@@ -5728,6 +5980,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VBHI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VBHI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="92">
   <si>
     <t>VBHI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,129 +665,132 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E7" s="2">
         <v>44957</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44865</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44773</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44681</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44592</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44500</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44408</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44316</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44227</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44135</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44043</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43951</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43861</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43769</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43677</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43585</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43496</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43404</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>400</v>
-      </c>
-      <c r="F8" s="3">
-        <v>200</v>
       </c>
       <c r="G8" s="3">
         <v>200</v>
       </c>
       <c r="H8" s="3">
+        <v>200</v>
+      </c>
+      <c r="I8" s="3">
         <v>300</v>
-      </c>
-      <c r="I8" s="3">
-        <v>100</v>
       </c>
       <c r="J8" s="3">
         <v>100</v>
       </c>
       <c r="K8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
+      <c r="M8" s="3">
+        <v>0</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>4</v>
@@ -798,8 +801,8 @@
       <c r="P8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
@@ -816,8 +819,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -878,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1026,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1109,17 +1128,17 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>1300</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>1700</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
@@ -1136,11 +1155,11 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>300</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
@@ -1150,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1159,29 +1181,29 @@
         <v>100</v>
       </c>
       <c r="E15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F15" s="3">
         <v>200</v>
       </c>
       <c r="G15" s="3">
+        <v>200</v>
+      </c>
+      <c r="H15" s="3">
         <v>300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>100</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
       <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
         <v>100</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1194,8 +1216,8 @@
       <c r="P15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1212,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,59 +1258,60 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2300</v>
-      </c>
-      <c r="L17" s="3">
-        <v>100</v>
       </c>
       <c r="M17" s="3">
         <v>100</v>
       </c>
       <c r="N17" s="3">
+        <v>100</v>
+      </c>
+      <c r="O17" s="3">
         <v>300</v>
-      </c>
-      <c r="O17" s="3">
-        <v>100</v>
       </c>
       <c r="P17" s="3">
         <v>100</v>
       </c>
       <c r="Q17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
         <v>300</v>
       </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
       <c r="T17" s="3">
         <v>0</v>
       </c>
@@ -1295,8 +1321,11 @@
       <c r="V17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1304,32 +1333,32 @@
         <v>-400</v>
       </c>
       <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-700</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-400</v>
       </c>
       <c r="H18" s="3">
         <v>-400</v>
       </c>
       <c r="I18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1339,15 +1368,15 @@
       <c r="P18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
         <v>0</v>
       </c>
@@ -1357,8 +1386,11 @@
       <c r="V18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1408,14 +1441,14 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1425,26 +1458,29 @@
       <c r="P20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1452,26 +1488,26 @@
         <v>-300</v>
       </c>
       <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
         <v>100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-600</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-200</v>
       </c>
       <c r="H21" s="3">
         <v>-200</v>
       </c>
       <c r="I21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J21" s="3">
         <v>-1500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-700</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1505,8 +1541,11 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1519,20 +1558,20 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
@@ -1550,25 +1589,28 @@
         <v>100</v>
       </c>
       <c r="Q22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
       <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
         <v>200</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
       <c r="U22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1576,61 +1618,64 @@
         <v>-400</v>
       </c>
       <c r="E23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2700</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-700</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-100</v>
       </c>
       <c r="U23" s="3">
         <v>-100</v>
       </c>
       <c r="V23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1691,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,8 +1801,11 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1762,61 +1813,64 @@
         <v>-400</v>
       </c>
       <c r="E26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2700</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-700</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-100</v>
       </c>
       <c r="U26" s="3">
         <v>-100</v>
       </c>
       <c r="V26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W26" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1824,61 +1878,64 @@
         <v>-500</v>
       </c>
       <c r="E27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2700</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-700</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-100</v>
       </c>
       <c r="U27" s="3">
         <v>-100</v>
       </c>
       <c r="V27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W27" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2152,14 +2221,14 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2169,26 +2238,29 @@
       <c r="P32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2196,61 +2268,64 @@
         <v>-500</v>
       </c>
       <c r="E33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2700</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-700</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-100</v>
       </c>
       <c r="U33" s="3">
         <v>-100</v>
       </c>
       <c r="V33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W33" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,8 +2386,11 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2320,128 +2398,134 @@
         <v>-500</v>
       </c>
       <c r="E35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2700</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-700</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-100</v>
       </c>
       <c r="U35" s="3">
         <v>-100</v>
       </c>
       <c r="V35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W35" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E38" s="2">
         <v>44957</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44865</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44773</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44681</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44592</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44500</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44408</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44316</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44227</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44135</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44043</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43951</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43861</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43769</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43677</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43585</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43496</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43404</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,13 +2573,14 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
@@ -2506,20 +2592,20 @@
         <v>100</v>
       </c>
       <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2100</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -2530,11 +2616,11 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
@@ -2550,8 +2636,11 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2630,10 +2722,10 @@
         <v>100</v>
       </c>
       <c r="H43" s="3">
+        <v>100</v>
+      </c>
+      <c r="I43" s="3">
         <v>200</v>
-      </c>
-      <c r="I43" s="3">
-        <v>100</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
@@ -2641,8 +2733,8 @@
       <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
+      <c r="L43" s="3">
+        <v>100</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
@@ -2656,8 +2748,8 @@
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -2674,8 +2766,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2765,8 +2863,8 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
@@ -2780,8 +2878,8 @@
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -2798,38 +2896,41 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>200</v>
       </c>
       <c r="F46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G46" s="3">
         <v>300</v>
       </c>
       <c r="H46" s="3">
+        <v>300</v>
+      </c>
+      <c r="I46" s="3">
         <v>1000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2200</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
@@ -2840,11 +2941,11 @@
         <v>0</v>
       </c>
       <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
         <v>100</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
       <c r="R46" s="3">
         <v>0</v>
       </c>
@@ -2860,8 +2961,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,44 +3026,47 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E48" s="3">
         <v>4200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>200</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2972,8 +3079,8 @@
       <c r="R48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
@@ -2984,8 +3091,11 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3046,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3232,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,53 +3416,56 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E54" s="3">
         <v>4300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>200</v>
       </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
       <c r="O54" s="3">
         <v>0</v>
       </c>
       <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
         <v>100</v>
       </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
       <c r="R54" s="3">
         <v>0</v>
       </c>
@@ -3356,8 +3481,11 @@
       <c r="V54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,13 +3533,14 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
@@ -3434,13 +3564,13 @@
         <v>200</v>
       </c>
       <c r="L57" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="M57" s="3">
         <v>400</v>
       </c>
       <c r="N57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O57" s="3">
         <v>300</v>
@@ -3452,37 +3582,40 @@
         <v>300</v>
       </c>
       <c r="R57" s="3">
+        <v>300</v>
+      </c>
+      <c r="S57" s="3">
         <v>200</v>
-      </c>
-      <c r="S57" s="3">
-        <v>500</v>
       </c>
       <c r="T57" s="3">
         <v>500</v>
       </c>
       <c r="U57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="V57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>300</v>
+      </c>
+      <c r="E58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
@@ -3496,19 +3629,19 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>800</v>
-      </c>
-      <c r="M58" s="3">
-        <v>700</v>
       </c>
       <c r="N58" s="3">
         <v>700</v>
       </c>
       <c r="O58" s="3">
+        <v>700</v>
+      </c>
+      <c r="P58" s="3">
         <v>600</v>
-      </c>
-      <c r="P58" s="3">
-        <v>500</v>
       </c>
       <c r="Q58" s="3">
         <v>500</v>
@@ -3520,21 +3653,24 @@
         <v>500</v>
       </c>
       <c r="T58" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="U58" s="3">
         <v>300</v>
       </c>
       <c r="V58" s="3">
+        <v>300</v>
+      </c>
+      <c r="W58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E59" s="3">
         <v>1300</v>
@@ -3549,111 +3685,117 @@
         <v>1300</v>
       </c>
       <c r="I59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
       <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>600</v>
-      </c>
-      <c r="U59" s="3">
-        <v>500</v>
       </c>
       <c r="V59" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="E60" s="3">
         <v>1600</v>
       </c>
       <c r="F60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G60" s="3">
         <v>1700</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1500</v>
       </c>
       <c r="H60" s="3">
         <v>1500</v>
       </c>
       <c r="I60" s="3">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="J60" s="3">
         <v>300</v>
       </c>
       <c r="K60" s="3">
+        <v>300</v>
+      </c>
+      <c r="L60" s="3">
         <v>500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3714,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3735,7 +3880,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J62" s="3">
         <v>100</v>
@@ -3743,8 +3888,8 @@
       <c r="K62" s="3">
         <v>100</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
+      <c r="L62" s="3">
+        <v>100</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
@@ -3758,8 +3903,8 @@
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -3776,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="E66" s="3">
         <v>1600</v>
       </c>
       <c r="F66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G66" s="3">
         <v>1700</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1500</v>
       </c>
       <c r="H66" s="3">
         <v>1500</v>
       </c>
       <c r="I66" s="3">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="J66" s="3">
         <v>300</v>
       </c>
       <c r="K66" s="3">
+        <v>300</v>
+      </c>
+      <c r="L66" s="3">
         <v>600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-15600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-15200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-15000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-14300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-13800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-13100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-11500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-10800</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-8100</v>
       </c>
       <c r="M72" s="3">
         <v>-8100</v>
       </c>
       <c r="N72" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="O72" s="3">
         <v>-8400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-7500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-6600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-6300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-5900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-5300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-5200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E76" s="3">
         <v>2700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-3600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-3100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2000</v>
-      </c>
-      <c r="T76" s="3">
-        <v>-1300</v>
       </c>
       <c r="U76" s="3">
         <v>-1300</v>
       </c>
       <c r="V76" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="W76" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,75 +4856,81 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E80" s="2">
         <v>44957</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44865</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44773</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44681</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44592</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44500</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44408</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44316</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44227</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44135</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44043</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43951</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43861</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43769</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43677</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43585</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43496</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43404</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4744,61 +4938,64 @@
         <v>-500</v>
       </c>
       <c r="E81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2700</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-700</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-100</v>
       </c>
       <c r="U81" s="3">
         <v>-100</v>
       </c>
       <c r="V81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W81" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4830,25 +5028,25 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
       </c>
       <c r="G83" s="3">
+        <v>200</v>
+      </c>
+      <c r="H83" s="3">
         <v>300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>4</v>
@@ -4865,8 +5063,8 @@
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -4883,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,37 +5406,40 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
@@ -5235,7 +5451,7 @@
         <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
@@ -5255,8 +5471,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5294,25 +5514,25 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2500</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
@@ -5329,8 +5549,8 @@
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -5341,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,40 +5691,43 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>200</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2500</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>4</v>
@@ -5515,8 +5744,8 @@
       <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
@@ -5527,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5808,28 +6053,28 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>1000</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>3900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>5000</v>
-      </c>
-      <c r="L100" s="3">
-        <v>100</v>
       </c>
       <c r="M100" s="3">
         <v>100</v>
@@ -5838,19 +6083,19 @@
         <v>100</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
+      <c r="S100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
@@ -5861,8 +6106,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,8 +6171,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5938,23 +6189,23 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -5962,11 +6213,11 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
@@ -5983,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VBHI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VBHI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
   <si>
     <t>VBHI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E7" s="2">
         <v>45046</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44957</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44865</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44773</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44681</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44592</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44500</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44408</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44316</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44227</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44135</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44043</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43951</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43861</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43769</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43677</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43585</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43496</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43404</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -766,34 +770,34 @@
         <v>100</v>
       </c>
       <c r="E8" s="3">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>400</v>
-      </c>
-      <c r="G8" s="3">
-        <v>200</v>
       </c>
       <c r="H8" s="3">
         <v>200</v>
       </c>
       <c r="I8" s="3">
+        <v>200</v>
+      </c>
+      <c r="J8" s="3">
         <v>300</v>
-      </c>
-      <c r="J8" s="3">
-        <v>100</v>
       </c>
       <c r="K8" s="3">
         <v>100</v>
       </c>
       <c r="L8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
+      <c r="N8" s="3">
+        <v>0</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>4</v>
@@ -804,8 +808,8 @@
       <c r="Q8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
+      <c r="R8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
@@ -822,8 +826,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,13 +1124,16 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1131,17 +1151,17 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>1300</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>1700</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
@@ -1158,11 +1178,11 @@
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>300</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1184,29 +1207,29 @@
         <v>100</v>
       </c>
       <c r="F15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G15" s="3">
         <v>200</v>
       </c>
       <c r="H15" s="3">
+        <v>200</v>
+      </c>
+      <c r="I15" s="3">
         <v>300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>100</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
       <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
         <v>100</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1219,8 +1242,8 @@
       <c r="Q15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,62 +1285,63 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2300</v>
-      </c>
-      <c r="M17" s="3">
-        <v>100</v>
       </c>
       <c r="N17" s="3">
         <v>100</v>
       </c>
       <c r="O17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
         <v>300</v>
-      </c>
-      <c r="P17" s="3">
-        <v>100</v>
       </c>
       <c r="Q17" s="3">
         <v>100</v>
       </c>
       <c r="R17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
         <v>300</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
       <c r="U17" s="3">
         <v>0</v>
       </c>
@@ -1324,44 +1351,47 @@
       <c r="W17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="E18" s="3">
         <v>-400</v>
       </c>
       <c r="F18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-700</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-400</v>
       </c>
       <c r="I18" s="3">
         <v>-400</v>
       </c>
       <c r="J18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1371,15 +1401,15 @@
       <c r="Q18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
+      <c r="R18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
         <v>0</v>
       </c>
@@ -1389,8 +1419,11 @@
       <c r="W18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1444,14 +1478,14 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1461,56 +1495,59 @@
       <c r="Q20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E21" s="3">
         <v>-300</v>
       </c>
       <c r="F21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G21" s="3">
         <v>100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-600</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-200</v>
       </c>
       <c r="I21" s="3">
         <v>-200</v>
       </c>
       <c r="J21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-1500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-700</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1544,8 +1581,11 @@
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1561,20 +1601,20 @@
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
@@ -1592,90 +1632,96 @@
         <v>100</v>
       </c>
       <c r="R22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
       <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
         <v>200</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
       <c r="V22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="E23" s="3">
         <v>-400</v>
       </c>
       <c r="F23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2700</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-700</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-100</v>
       </c>
       <c r="V23" s="3">
         <v>-100</v>
       </c>
       <c r="W23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="E26" s="3">
         <v>-400</v>
       </c>
       <c r="F26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2700</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-700</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-100</v>
       </c>
       <c r="V26" s="3">
         <v>-100</v>
       </c>
       <c r="W26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X26" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="E27" s="3">
         <v>-500</v>
       </c>
       <c r="F27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2700</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-700</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-100</v>
       </c>
       <c r="V27" s="3">
         <v>-100</v>
       </c>
       <c r="W27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X27" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2224,14 +2294,14 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2241,91 +2311,97 @@
       <c r="Q32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="E33" s="3">
         <v>-500</v>
       </c>
       <c r="F33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2700</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-700</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-100</v>
       </c>
       <c r="V33" s="3">
         <v>-100</v>
       </c>
       <c r="W33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X33" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="E35" s="3">
         <v>-500</v>
       </c>
       <c r="F35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2700</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-700</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-100</v>
       </c>
       <c r="V35" s="3">
         <v>-100</v>
       </c>
       <c r="W35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X35" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E38" s="2">
         <v>45046</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44957</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44865</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44773</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44681</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44592</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44500</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44408</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44316</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44227</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44135</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44043</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43951</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43861</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43769</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43677</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43585</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43496</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43404</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,16 +2660,17 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
@@ -2595,20 +2682,20 @@
         <v>100</v>
       </c>
       <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
         <v>700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2100</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
@@ -2619,11 +2706,11 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
@@ -2639,8 +2726,11 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2725,10 +2818,10 @@
         <v>100</v>
       </c>
       <c r="I43" s="3">
+        <v>100</v>
+      </c>
+      <c r="J43" s="3">
         <v>200</v>
-      </c>
-      <c r="J43" s="3">
-        <v>100</v>
       </c>
       <c r="K43" s="3">
         <v>100</v>
@@ -2736,8 +2829,8 @@
       <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
+      <c r="M43" s="3">
+        <v>100</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>4</v>
@@ -2751,8 +2844,8 @@
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2866,8 +2965,8 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>4</v>
@@ -2881,8 +2980,8 @@
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -2899,41 +2998,44 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
         <v>100</v>
-      </c>
-      <c r="E46" s="3">
-        <v>200</v>
       </c>
       <c r="F46" s="3">
         <v>200</v>
       </c>
       <c r="G46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H46" s="3">
         <v>300</v>
       </c>
       <c r="I46" s="3">
+        <v>300</v>
+      </c>
+      <c r="J46" s="3">
         <v>1000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2200</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
@@ -2944,11 +3046,11 @@
         <v>0</v>
       </c>
       <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
         <v>100</v>
       </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
       <c r="S46" s="3">
         <v>0</v>
       </c>
@@ -2964,8 +3066,11 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,47 +3134,50 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E48" s="3">
         <v>4100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>200</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3082,8 +3190,8 @@
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T48" s="3">
-        <v>0</v>
+      <c r="T48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U48" s="3">
         <v>0</v>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,56 +3542,59 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E54" s="3">
         <v>4200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>200</v>
       </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
       <c r="P54" s="3">
         <v>0</v>
       </c>
       <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
         <v>100</v>
       </c>
-      <c r="R54" s="3">
-        <v>0</v>
-      </c>
       <c r="S54" s="3">
         <v>0</v>
       </c>
@@ -3484,8 +3610,11 @@
       <c r="W54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,16 +3664,17 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
-      </c>
-      <c r="E57" s="3">
-        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
@@ -3567,13 +3698,13 @@
         <v>200</v>
       </c>
       <c r="M57" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>400</v>
       </c>
       <c r="O57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P57" s="3">
         <v>300</v>
@@ -3585,40 +3716,43 @@
         <v>300</v>
       </c>
       <c r="S57" s="3">
+        <v>300</v>
+      </c>
+      <c r="T57" s="3">
         <v>200</v>
-      </c>
-      <c r="T57" s="3">
-        <v>500</v>
       </c>
       <c r="U57" s="3">
         <v>500</v>
       </c>
       <c r="V57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="W57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>500</v>
+      </c>
+      <c r="E58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
@@ -3632,19 +3766,19 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>800</v>
-      </c>
-      <c r="N58" s="3">
-        <v>700</v>
       </c>
       <c r="O58" s="3">
         <v>700</v>
       </c>
       <c r="P58" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q58" s="3">
         <v>600</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>500</v>
       </c>
       <c r="R58" s="3">
         <v>500</v>
@@ -3656,16 +3790,19 @@
         <v>500</v>
       </c>
       <c r="U58" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="V58" s="3">
         <v>300</v>
       </c>
       <c r="W58" s="3">
+        <v>300</v>
+      </c>
+      <c r="X58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3673,7 +3810,7 @@
         <v>1200</v>
       </c>
       <c r="E59" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="F59" s="3">
         <v>1300</v>
@@ -3688,114 +3825,120 @@
         <v>1300</v>
       </c>
       <c r="J59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
       <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>600</v>
-      </c>
-      <c r="V59" s="3">
-        <v>500</v>
       </c>
       <c r="W59" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E60" s="3">
         <v>1800</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1600</v>
       </c>
       <c r="F60" s="3">
         <v>1600</v>
       </c>
       <c r="G60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H60" s="3">
         <v>1700</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1500</v>
       </c>
       <c r="I60" s="3">
         <v>1500</v>
       </c>
       <c r="J60" s="3">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="K60" s="3">
         <v>300</v>
       </c>
       <c r="L60" s="3">
+        <v>300</v>
+      </c>
+      <c r="M60" s="3">
         <v>500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,13 +4002,16 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -3883,7 +4029,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K62" s="3">
         <v>100</v>
@@ -3891,8 +4037,8 @@
       <c r="L62" s="3">
         <v>100</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
+      <c r="M62" s="3">
+        <v>100</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
@@ -3906,8 +4052,8 @@
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E66" s="3">
         <v>1800</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1600</v>
       </c>
       <c r="F66" s="3">
         <v>1600</v>
       </c>
       <c r="G66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H66" s="3">
         <v>1700</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1500</v>
       </c>
       <c r="I66" s="3">
         <v>1500</v>
       </c>
       <c r="J66" s="3">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="K66" s="3">
         <v>300</v>
       </c>
       <c r="L66" s="3">
+        <v>300</v>
+      </c>
+      <c r="M66" s="3">
         <v>600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-16000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-15600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-15200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-15000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-14300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-13800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-13100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-11500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-10800</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-8100</v>
       </c>
       <c r="N72" s="3">
         <v>-8100</v>
       </c>
       <c r="O72" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="P72" s="3">
         <v>-8400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-7000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-6600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-6300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-5900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-5300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-5200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-3600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-2000</v>
-      </c>
-      <c r="U76" s="3">
-        <v>-1300</v>
       </c>
       <c r="V76" s="3">
         <v>-1300</v>
       </c>
       <c r="W76" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="X76" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E80" s="2">
         <v>45046</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44957</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44865</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44773</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44681</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44592</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44500</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44408</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44316</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44227</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44135</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44043</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43951</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43861</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43769</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43677</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43585</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43496</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43404</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="E81" s="3">
         <v>-500</v>
       </c>
       <c r="F81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2700</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-700</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-100</v>
       </c>
       <c r="V81" s="3">
         <v>-100</v>
       </c>
       <c r="W81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X81" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5031,25 +5230,25 @@
         <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>200</v>
       </c>
       <c r="H83" s="3">
+        <v>200</v>
+      </c>
+      <c r="I83" s="3">
         <v>300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>4</v>
@@ -5066,8 +5265,8 @@
       <c r="Q83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,40 +5623,43 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
@@ -5454,7 +5671,7 @@
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
@@ -5474,8 +5691,11 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,13 +5719,14 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -5517,25 +5738,25 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2500</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
@@ -5552,8 +5773,8 @@
       <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,43 +5921,46 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>200</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2500</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>4</v>
@@ -5747,8 +5977,8 @@
       <c r="S94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
+      <c r="T94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,40 +6287,43 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>1000</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>3900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>5000</v>
-      </c>
-      <c r="M100" s="3">
-        <v>100</v>
       </c>
       <c r="N100" s="3">
         <v>100</v>
@@ -6086,19 +6332,19 @@
         <v>100</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
+      <c r="T100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
@@ -6109,8 +6355,11 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,13 +6423,16 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -6192,23 +6444,23 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
@@ -6216,11 +6468,11 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
@@ -6237,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>
